--- a/grape_qc_assembly/qc_results.xlsx
+++ b/grape_qc_assembly/qc_results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="coverage" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="chekm_results" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="spades_summary" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="qc" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="coverage" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="checkm_results" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="assembly_summary" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="qc" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1101,10 +1101,10 @@
         <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>99.97</v>
       </c>
       <c r="M8" t="n">
-        <v>0.43</v>
+        <v>0.33</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -1149,10 +1149,10 @@
         <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1167,10 +1167,10 @@
         <v>99.97</v>
       </c>
       <c r="M9" t="n">
-        <v>0.48</v>
+        <v>0.38</v>
       </c>
       <c r="N9" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1482,10 +1482,10 @@
         <v>336</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G16" t="n">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="H16" t="n">
         <v>2</v>
@@ -1500,7 +1500,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>99.97</v>
+        <v>99.92</v>
       </c>
       <c r="M16" t="n">
         <v>0.33</v>
@@ -1621,12 +1621,12 @@
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>N75</t>
+          <t>N90</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>AuN</t>
+          <t>auN</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
@@ -1646,7 +1646,7 @@
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t># spades_version</t>
+          <t>Assembler version</t>
         </is>
       </c>
     </row>
@@ -1657,74 +1657,74 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>384</v>
+        <v>183</v>
       </c>
       <c r="C2" t="n">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D2" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E2" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F2" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G2" t="n">
         <v>27</v>
       </c>
       <c r="H2" t="n">
-        <v>5171947</v>
+        <v>5121243</v>
       </c>
       <c r="I2" t="n">
-        <v>5077035</v>
+        <v>5081427</v>
       </c>
       <c r="J2" t="n">
-        <v>4974602</v>
+        <v>4972995</v>
       </c>
       <c r="K2" t="n">
-        <v>4913552</v>
+        <v>4902494</v>
       </c>
       <c r="L2" t="n">
-        <v>4635754</v>
+        <v>4619983</v>
       </c>
       <c r="M2" t="n">
-        <v>4117711</v>
+        <v>4072688</v>
       </c>
       <c r="N2" t="n">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="O2" t="n">
         <v>434806</v>
       </c>
       <c r="P2" t="n">
-        <v>5117431</v>
+        <v>5121243</v>
       </c>
       <c r="Q2" t="n">
         <v>50.54</v>
       </c>
       <c r="R2" t="n">
-        <v>139988</v>
+        <v>134860</v>
       </c>
       <c r="S2" t="n">
-        <v>27799</v>
+        <v>26309</v>
       </c>
       <c r="T2" t="n">
-        <v>161959.7</v>
+        <v>159873.5</v>
       </c>
       <c r="U2" t="n">
         <v>12</v>
       </c>
       <c r="V2" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>SPAdes v3.13.0</t>
+          <t>SPAdes genome assembler v4.0.0</t>
         </is>
       </c>
     </row>
@@ -1735,49 +1735,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>421</v>
+        <v>208</v>
       </c>
       <c r="C3" t="n">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D3" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E3" t="n">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F3" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G3" t="n">
         <v>28</v>
       </c>
       <c r="H3" t="n">
-        <v>5244736</v>
+        <v>5187002</v>
       </c>
       <c r="I3" t="n">
-        <v>5145541</v>
+        <v>5138794</v>
       </c>
       <c r="J3" t="n">
-        <v>5007021</v>
+        <v>4999010</v>
       </c>
       <c r="K3" t="n">
-        <v>4908727</v>
+        <v>4908888</v>
       </c>
       <c r="L3" t="n">
-        <v>4694786</v>
+        <v>4665845</v>
       </c>
       <c r="M3" t="n">
-        <v>4204214</v>
+        <v>4137606</v>
       </c>
       <c r="N3" t="n">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="O3" t="n">
         <v>434985</v>
       </c>
       <c r="P3" t="n">
-        <v>5185167</v>
+        <v>5187002</v>
       </c>
       <c r="Q3" t="n">
         <v>50.46</v>
@@ -1786,23 +1786,23 @@
         <v>136153</v>
       </c>
       <c r="S3" t="n">
-        <v>27798</v>
+        <v>23015</v>
       </c>
       <c r="T3" t="n">
-        <v>163054.4</v>
+        <v>160642.5</v>
       </c>
       <c r="U3" t="n">
         <v>12</v>
       </c>
       <c r="V3" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>SPAdes v3.13.0</t>
+          <t>SPAdes genome assembler v4.0.0</t>
         </is>
       </c>
     </row>
@@ -1813,74 +1813,74 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>375</v>
+        <v>184</v>
       </c>
       <c r="C4" t="n">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D4" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E4" t="n">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F4" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H4" t="n">
-        <v>5176216</v>
+        <v>5123217</v>
       </c>
       <c r="I4" t="n">
-        <v>5084165</v>
+        <v>5080965</v>
       </c>
       <c r="J4" t="n">
-        <v>4953631</v>
+        <v>4960447</v>
       </c>
       <c r="K4" t="n">
-        <v>4893458</v>
+        <v>4920979</v>
       </c>
       <c r="L4" t="n">
-        <v>4701546</v>
+        <v>4685982</v>
       </c>
       <c r="M4" t="n">
-        <v>4211999</v>
+        <v>4197348</v>
       </c>
       <c r="N4" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O4" t="n">
         <v>434806</v>
       </c>
       <c r="P4" t="n">
-        <v>5124852</v>
+        <v>5123217</v>
       </c>
       <c r="Q4" t="n">
         <v>50.54</v>
       </c>
       <c r="R4" t="n">
-        <v>149319</v>
+        <v>136153</v>
       </c>
       <c r="S4" t="n">
-        <v>31262</v>
+        <v>30991</v>
       </c>
       <c r="T4" t="n">
-        <v>170096</v>
+        <v>164637.9</v>
       </c>
       <c r="U4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V4" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>SPAdes v3.13.0</t>
+          <t>SPAdes genome assembler v4.0.0</t>
         </is>
       </c>
     </row>
@@ -1891,49 +1891,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>404</v>
+        <v>189</v>
       </c>
       <c r="C5" t="n">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D5" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E5" t="n">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F5" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G5" t="n">
         <v>27</v>
       </c>
       <c r="H5" t="n">
-        <v>5242511</v>
+        <v>5185030</v>
       </c>
       <c r="I5" t="n">
-        <v>5146458</v>
+        <v>5146236</v>
       </c>
       <c r="J5" t="n">
-        <v>5013344</v>
+        <v>5018447</v>
       </c>
       <c r="K5" t="n">
-        <v>4911345</v>
+        <v>4947033</v>
       </c>
       <c r="L5" t="n">
-        <v>4726882</v>
+        <v>4692842</v>
       </c>
       <c r="M5" t="n">
-        <v>4209562</v>
+        <v>4136354</v>
       </c>
       <c r="N5" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O5" t="n">
-        <v>434985</v>
+        <v>435066</v>
       </c>
       <c r="P5" t="n">
-        <v>5186337</v>
+        <v>5185030</v>
       </c>
       <c r="Q5" t="n">
         <v>50.46</v>
@@ -1942,23 +1942,23 @@
         <v>136153</v>
       </c>
       <c r="S5" t="n">
-        <v>28453</v>
+        <v>27799</v>
       </c>
       <c r="T5" t="n">
-        <v>168249</v>
+        <v>166227.1</v>
       </c>
       <c r="U5" t="n">
         <v>12</v>
       </c>
       <c r="V5" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>SPAdes v3.13.0</t>
+          <t>SPAdes genome assembler v4.0.0</t>
         </is>
       </c>
     </row>
@@ -1969,49 +1969,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>496</v>
+        <v>228</v>
       </c>
       <c r="C6" t="n">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="D6" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E6" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F6" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G6" t="n">
         <v>28</v>
       </c>
       <c r="H6" t="n">
-        <v>5435700</v>
+        <v>5361342</v>
       </c>
       <c r="I6" t="n">
-        <v>5314294</v>
+        <v>5311713</v>
       </c>
       <c r="J6" t="n">
-        <v>5173755</v>
+        <v>5142269</v>
       </c>
       <c r="K6" t="n">
-        <v>5087741</v>
+        <v>5057433</v>
       </c>
       <c r="L6" t="n">
-        <v>4757459</v>
+        <v>4757293</v>
       </c>
       <c r="M6" t="n">
-        <v>4266476</v>
+        <v>4227579</v>
       </c>
       <c r="N6" t="n">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="O6" t="n">
         <v>435066</v>
       </c>
       <c r="P6" t="n">
-        <v>5362735</v>
+        <v>5361342</v>
       </c>
       <c r="Q6" t="n">
         <v>50.35</v>
@@ -2020,23 +2020,23 @@
         <v>134860</v>
       </c>
       <c r="S6" t="n">
-        <v>20415</v>
+        <v>20033</v>
       </c>
       <c r="T6" t="n">
-        <v>163043.1</v>
+        <v>162122.5</v>
       </c>
       <c r="U6" t="n">
         <v>12</v>
       </c>
       <c r="V6" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>SPAdes v3.13.0</t>
+          <t>SPAdes genome assembler v4.0.0</t>
         </is>
       </c>
     </row>
@@ -2047,16 +2047,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>530</v>
+        <v>194</v>
       </c>
       <c r="C7" t="n">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D7" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E7" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F7" t="n">
         <v>45</v>
@@ -2065,31 +2065,31 @@
         <v>28</v>
       </c>
       <c r="H7" t="n">
-        <v>5504310</v>
+        <v>5414362</v>
       </c>
       <c r="I7" t="n">
-        <v>5370957</v>
+        <v>5372298</v>
       </c>
       <c r="J7" t="n">
-        <v>5199314</v>
+        <v>5191996</v>
       </c>
       <c r="K7" t="n">
-        <v>5104243</v>
+        <v>5107907</v>
       </c>
       <c r="L7" t="n">
-        <v>5041946</v>
+        <v>5023469</v>
       </c>
       <c r="M7" t="n">
-        <v>4400727</v>
+        <v>4405732</v>
       </c>
       <c r="N7" t="n">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="O7" t="n">
-        <v>420006</v>
+        <v>420164</v>
       </c>
       <c r="P7" t="n">
-        <v>5416442</v>
+        <v>5414362</v>
       </c>
       <c r="Q7" t="n">
         <v>50.3</v>
@@ -2101,7 +2101,7 @@
         <v>31039</v>
       </c>
       <c r="T7" t="n">
-        <v>185707.2</v>
+        <v>185696.8</v>
       </c>
       <c r="U7" t="n">
         <v>11</v>
@@ -2114,7 +2114,7 @@
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>SPAdes v3.13.0</t>
+          <t>SPAdes genome assembler v4.0.0</t>
         </is>
       </c>
     </row>
@@ -2125,74 +2125,74 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>564</v>
+        <v>210</v>
       </c>
       <c r="C8" t="n">
         <v>142</v>
       </c>
       <c r="D8" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E8" t="n">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F8" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G8" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H8" t="n">
-        <v>5512160</v>
+        <v>5419936</v>
       </c>
       <c r="I8" t="n">
-        <v>5370134</v>
+        <v>5373347</v>
       </c>
       <c r="J8" t="n">
-        <v>5201429</v>
+        <v>5198174</v>
       </c>
       <c r="K8" t="n">
-        <v>5101162</v>
+        <v>5094970</v>
       </c>
       <c r="L8" t="n">
-        <v>5020221</v>
+        <v>5041429</v>
       </c>
       <c r="M8" t="n">
-        <v>4074787</v>
+        <v>4094123</v>
       </c>
       <c r="N8" t="n">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O8" t="n">
         <v>345167</v>
       </c>
       <c r="P8" t="n">
-        <v>5418654</v>
+        <v>5419936</v>
       </c>
       <c r="Q8" t="n">
-        <v>50.29</v>
+        <v>50.3</v>
       </c>
       <c r="R8" t="n">
-        <v>135964</v>
+        <v>136960</v>
       </c>
       <c r="S8" t="n">
         <v>30996</v>
       </c>
       <c r="T8" t="n">
-        <v>151012.5</v>
+        <v>155152.8</v>
       </c>
       <c r="U8" t="n">
         <v>13</v>
       </c>
       <c r="V8" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>SPAdes v3.13.0</t>
+          <t>SPAdes genome assembler v4.0.0</t>
         </is>
       </c>
     </row>
@@ -2203,64 +2203,64 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>509</v>
+        <v>186</v>
       </c>
       <c r="C9" t="n">
         <v>125</v>
       </c>
       <c r="D9" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E9" t="n">
         <v>50</v>
       </c>
       <c r="F9" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G9" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H9" t="n">
-        <v>5705881</v>
+        <v>5620494</v>
       </c>
       <c r="I9" t="n">
-        <v>5577851</v>
+        <v>5579575</v>
       </c>
       <c r="J9" t="n">
-        <v>5422146</v>
+        <v>5427589</v>
       </c>
       <c r="K9" t="n">
-        <v>5338465</v>
+        <v>5326846</v>
       </c>
       <c r="L9" t="n">
-        <v>5247515</v>
+        <v>5215999</v>
       </c>
       <c r="M9" t="n">
-        <v>4741855</v>
+        <v>4733276</v>
       </c>
       <c r="N9" t="n">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="O9" t="n">
         <v>375482</v>
       </c>
       <c r="P9" t="n">
-        <v>5617379</v>
+        <v>5620494</v>
       </c>
       <c r="Q9" t="n">
         <v>50.08</v>
       </c>
       <c r="R9" t="n">
-        <v>145753</v>
+        <v>188556</v>
       </c>
       <c r="S9" t="n">
-        <v>35947</v>
+        <v>31416</v>
       </c>
       <c r="T9" t="n">
-        <v>187772.5</v>
+        <v>191002.1</v>
       </c>
       <c r="U9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V9" t="n">
         <v>38</v>
@@ -2270,7 +2270,7 @@
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>SPAdes v3.13.0</t>
+          <t>SPAdes genome assembler v4.0.0</t>
         </is>
       </c>
     </row>
@@ -2281,49 +2281,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>507</v>
+        <v>205</v>
       </c>
       <c r="C10" t="n">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D10" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E10" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F10" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G10" t="n">
         <v>28</v>
       </c>
       <c r="H10" t="n">
-        <v>5506930</v>
+        <v>5424082</v>
       </c>
       <c r="I10" t="n">
-        <v>5375775</v>
+        <v>5375501</v>
       </c>
       <c r="J10" t="n">
-        <v>5206522</v>
+        <v>5201745</v>
       </c>
       <c r="K10" t="n">
-        <v>5108929</v>
+        <v>5095060</v>
       </c>
       <c r="L10" t="n">
-        <v>4996032</v>
+        <v>5009277</v>
       </c>
       <c r="M10" t="n">
-        <v>4552312</v>
+        <v>4538277</v>
       </c>
       <c r="N10" t="n">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="O10" t="n">
         <v>375998</v>
       </c>
       <c r="P10" t="n">
-        <v>5421642</v>
+        <v>5424082</v>
       </c>
       <c r="Q10" t="n">
         <v>50.3</v>
@@ -2332,10 +2332,10 @@
         <v>168342</v>
       </c>
       <c r="S10" t="n">
-        <v>31039</v>
+        <v>31045</v>
       </c>
       <c r="T10" t="n">
-        <v>192590.6</v>
+        <v>189749.7</v>
       </c>
       <c r="U10" t="n">
         <v>10</v>
@@ -2348,7 +2348,7 @@
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>SPAdes v3.13.0</t>
+          <t>SPAdes genome assembler v4.0.0</t>
         </is>
       </c>
     </row>
@@ -2359,49 +2359,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>535</v>
+        <v>222</v>
       </c>
       <c r="C11" t="n">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="D11" t="n">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E11" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="F11" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G11" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H11" t="n">
-        <v>5568907</v>
+        <v>5475681</v>
       </c>
       <c r="I11" t="n">
-        <v>5430559</v>
+        <v>5422855</v>
       </c>
       <c r="J11" t="n">
-        <v>5259758</v>
+        <v>5231718</v>
       </c>
       <c r="K11" t="n">
-        <v>5147343</v>
+        <v>5131046</v>
       </c>
       <c r="L11" t="n">
-        <v>5079796</v>
+        <v>4947350</v>
       </c>
       <c r="M11" t="n">
-        <v>4435478</v>
+        <v>4400337</v>
       </c>
       <c r="N11" t="n">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="O11" t="n">
-        <v>375632</v>
+        <v>375008</v>
       </c>
       <c r="P11" t="n">
-        <v>5478547</v>
+        <v>5475681</v>
       </c>
       <c r="Q11" t="n">
         <v>50.21</v>
@@ -2410,23 +2410,23 @@
         <v>146021</v>
       </c>
       <c r="S11" t="n">
-        <v>32678</v>
+        <v>25947</v>
       </c>
       <c r="T11" t="n">
-        <v>179298.2</v>
+        <v>174380.6</v>
       </c>
       <c r="U11" t="n">
         <v>11</v>
       </c>
       <c r="V11" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>SPAdes v3.13.0</t>
+          <t>SPAdes genome assembler v4.0.0</t>
         </is>
       </c>
     </row>
@@ -2437,64 +2437,64 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>499</v>
+        <v>211</v>
       </c>
       <c r="C12" t="n">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D12" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E12" t="n">
         <v>48</v>
       </c>
       <c r="F12" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G12" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H12" t="n">
-        <v>5473450</v>
+        <v>5394524</v>
       </c>
       <c r="I12" t="n">
-        <v>5341854</v>
+        <v>5340475</v>
       </c>
       <c r="J12" t="n">
-        <v>5185058</v>
+        <v>5162224</v>
       </c>
       <c r="K12" t="n">
-        <v>5064533</v>
+        <v>5046758</v>
       </c>
       <c r="L12" t="n">
-        <v>4928023</v>
+        <v>4881446</v>
       </c>
       <c r="M12" t="n">
-        <v>4489914</v>
+        <v>4510957</v>
       </c>
       <c r="N12" t="n">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="O12" t="n">
-        <v>419719</v>
+        <v>375453</v>
       </c>
       <c r="P12" t="n">
-        <v>5392682</v>
+        <v>5394524</v>
       </c>
       <c r="Q12" t="n">
         <v>50.25</v>
       </c>
       <c r="R12" t="n">
-        <v>237090</v>
+        <v>188210</v>
       </c>
       <c r="S12" t="n">
         <v>26324</v>
       </c>
       <c r="T12" t="n">
-        <v>199980.1</v>
+        <v>191941.6</v>
       </c>
       <c r="U12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="V12" t="n">
         <v>37</v>
@@ -2504,7 +2504,7 @@
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>SPAdes v3.13.0</t>
+          <t>SPAdes genome assembler v4.0.0</t>
         </is>
       </c>
     </row>
@@ -2515,49 +2515,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>501</v>
+        <v>209</v>
       </c>
       <c r="C13" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D13" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E13" t="n">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F13" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G13" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H13" t="n">
-        <v>5475265</v>
+        <v>5394992</v>
       </c>
       <c r="I13" t="n">
-        <v>5342061</v>
+        <v>5343485</v>
       </c>
       <c r="J13" t="n">
-        <v>5174864</v>
+        <v>5164502</v>
       </c>
       <c r="K13" t="n">
-        <v>5078336</v>
+        <v>5053757</v>
       </c>
       <c r="L13" t="n">
-        <v>4941192</v>
+        <v>4929898</v>
       </c>
       <c r="M13" t="n">
-        <v>4475348</v>
+        <v>4511860</v>
       </c>
       <c r="N13" t="n">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="O13" t="n">
         <v>375453</v>
       </c>
       <c r="P13" t="n">
-        <v>5396956</v>
+        <v>5394992</v>
       </c>
       <c r="Q13" t="n">
         <v>50.25</v>
@@ -2566,23 +2566,23 @@
         <v>182824</v>
       </c>
       <c r="S13" t="n">
-        <v>29314</v>
+        <v>27555</v>
       </c>
       <c r="T13" t="n">
-        <v>185944.8</v>
+        <v>190906.1</v>
       </c>
       <c r="U13" t="n">
         <v>10</v>
       </c>
       <c r="V13" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>SPAdes v3.13.0</t>
+          <t>SPAdes genome assembler v4.0.0</t>
         </is>
       </c>
     </row>
@@ -2593,16 +2593,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>491</v>
+        <v>202</v>
       </c>
       <c r="C14" t="n">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="D14" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E14" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F14" t="n">
         <v>39</v>
@@ -2611,56 +2611,56 @@
         <v>28</v>
       </c>
       <c r="H14" t="n">
-        <v>5474739</v>
+        <v>5394566</v>
       </c>
       <c r="I14" t="n">
-        <v>5350705</v>
+        <v>5348409</v>
       </c>
       <c r="J14" t="n">
-        <v>5182865</v>
+        <v>5176178</v>
       </c>
       <c r="K14" t="n">
-        <v>5084596</v>
+        <v>5076228</v>
       </c>
       <c r="L14" t="n">
-        <v>4946493</v>
+        <v>4927901</v>
       </c>
       <c r="M14" t="n">
-        <v>4561949</v>
+        <v>4554364</v>
       </c>
       <c r="N14" t="n">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="O14" t="n">
         <v>375453</v>
       </c>
       <c r="P14" t="n">
-        <v>5395672</v>
+        <v>5394566</v>
       </c>
       <c r="Q14" t="n">
         <v>50.25</v>
       </c>
       <c r="R14" t="n">
-        <v>188436</v>
+        <v>182711</v>
       </c>
       <c r="S14" t="n">
-        <v>28998</v>
+        <v>27555</v>
       </c>
       <c r="T14" t="n">
-        <v>189767.3</v>
+        <v>189009.3</v>
       </c>
       <c r="U14" t="n">
         <v>10</v>
       </c>
       <c r="V14" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>SPAdes v3.13.0</t>
+          <t>SPAdes genome assembler v4.0.0</t>
         </is>
       </c>
     </row>
@@ -2671,61 +2671,61 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>519</v>
+        <v>208</v>
       </c>
       <c r="C15" t="n">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D15" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E15" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F15" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G15" t="n">
         <v>27</v>
       </c>
       <c r="H15" t="n">
-        <v>5476139</v>
+        <v>5392234</v>
       </c>
       <c r="I15" t="n">
-        <v>5344538</v>
+        <v>5345345</v>
       </c>
       <c r="J15" t="n">
-        <v>5163825</v>
+        <v>5165431</v>
       </c>
       <c r="K15" t="n">
-        <v>5049141</v>
+        <v>5043601</v>
       </c>
       <c r="L15" t="n">
-        <v>4921928</v>
+        <v>4882821</v>
       </c>
       <c r="M15" t="n">
-        <v>4475125</v>
+        <v>4480696</v>
       </c>
       <c r="N15" t="n">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="O15" t="n">
         <v>375453</v>
       </c>
       <c r="P15" t="n">
-        <v>5390886</v>
+        <v>5392234</v>
       </c>
       <c r="Q15" t="n">
         <v>50.25</v>
       </c>
       <c r="R15" t="n">
-        <v>182824</v>
+        <v>182515</v>
       </c>
       <c r="S15" t="n">
-        <v>26324</v>
+        <v>25708</v>
       </c>
       <c r="T15" t="n">
-        <v>190331.5</v>
+        <v>190031.2</v>
       </c>
       <c r="U15" t="n">
         <v>10</v>
@@ -2738,7 +2738,7 @@
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>SPAdes v3.13.0</t>
+          <t>SPAdes genome assembler v4.0.0</t>
         </is>
       </c>
     </row>
@@ -2749,74 +2749,74 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>476</v>
+        <v>208</v>
       </c>
       <c r="C16" t="n">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D16" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E16" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F16" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G16" t="n">
         <v>27</v>
       </c>
       <c r="H16" t="n">
-        <v>5438983</v>
+        <v>5370026</v>
       </c>
       <c r="I16" t="n">
-        <v>5318508</v>
+        <v>5319638</v>
       </c>
       <c r="J16" t="n">
-        <v>5159439</v>
+        <v>5159010</v>
       </c>
       <c r="K16" t="n">
-        <v>5044377</v>
+        <v>5037344</v>
       </c>
       <c r="L16" t="n">
-        <v>4838624</v>
+        <v>4889865</v>
       </c>
       <c r="M16" t="n">
-        <v>4438126</v>
+        <v>4444384</v>
       </c>
       <c r="N16" t="n">
         <v>208</v>
       </c>
       <c r="O16" t="n">
-        <v>375453</v>
+        <v>421487</v>
       </c>
       <c r="P16" t="n">
-        <v>5366824</v>
+        <v>5370026</v>
       </c>
       <c r="Q16" t="n">
-        <v>50.26</v>
+        <v>50.27</v>
       </c>
       <c r="R16" t="n">
-        <v>188436</v>
+        <v>237090</v>
       </c>
       <c r="S16" t="n">
-        <v>25123</v>
+        <v>27555</v>
       </c>
       <c r="T16" t="n">
-        <v>191329.4</v>
+        <v>201510.4</v>
       </c>
       <c r="U16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="V16" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>SPAdes v3.13.0</t>
+          <t>SPAdes genome assembler v4.0.0</t>
         </is>
       </c>
     </row>
@@ -2867,27 +2867,27 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Largest_contig</t>
+          <t>largest_contig</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Total_length</t>
+          <t>total_length</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Marker_lineage</t>
+          <t>marker_lineage</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Completeness</t>
+          <t>completeness</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Contamination</t>
+          <t>contamination</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
@@ -2907,17 +2907,17 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>qc_Total_length</t>
+          <t>qc_total_length</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>qc_Completeness</t>
+          <t>qc_completeness</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>qc_Comtamination</t>
+          <t>qc_contamination</t>
         </is>
       </c>
     </row>
@@ -2937,13 +2937,13 @@
         <v>61.0551670909091</v>
       </c>
       <c r="E2" t="n">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="F2" t="n">
         <v>434806</v>
       </c>
       <c r="G2" t="n">
-        <v>5117431</v>
+        <v>5121243</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -3003,13 +3003,13 @@
         <v>66.19687581818179</v>
       </c>
       <c r="E3" t="n">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="F3" t="n">
         <v>434985</v>
       </c>
       <c r="G3" t="n">
-        <v>5185167</v>
+        <v>5187002</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -3069,13 +3069,13 @@
         <v>63.0509718181818</v>
       </c>
       <c r="E4" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F4" t="n">
         <v>434806</v>
       </c>
       <c r="G4" t="n">
-        <v>5124852</v>
+        <v>5123217</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -3135,13 +3135,13 @@
         <v>54.5371625454545</v>
       </c>
       <c r="E5" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F5" t="n">
-        <v>434985</v>
+        <v>435066</v>
       </c>
       <c r="G5" t="n">
-        <v>5186337</v>
+        <v>5185030</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -3201,13 +3201,13 @@
         <v>62.0508061818182</v>
       </c>
       <c r="E6" t="n">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="F6" t="n">
         <v>435066</v>
       </c>
       <c r="G6" t="n">
-        <v>5362735</v>
+        <v>5361342</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -3267,13 +3267,13 @@
         <v>78.9746552727273</v>
       </c>
       <c r="E7" t="n">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F7" t="n">
-        <v>420006</v>
+        <v>420164</v>
       </c>
       <c r="G7" t="n">
-        <v>5416442</v>
+        <v>5414362</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -3333,13 +3333,13 @@
         <v>60.3971370909091</v>
       </c>
       <c r="E8" t="n">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F8" t="n">
         <v>345167</v>
       </c>
       <c r="G8" t="n">
-        <v>5418654</v>
+        <v>5419936</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -3350,7 +3350,7 @@
         <v>99.97</v>
       </c>
       <c r="J8" t="n">
-        <v>0.43</v>
+        <v>0.33</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -3399,13 +3399,13 @@
         <v>85.33995218181821</v>
       </c>
       <c r="E9" t="n">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F9" t="n">
         <v>375482</v>
       </c>
       <c r="G9" t="n">
-        <v>5617379</v>
+        <v>5620494</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -3416,7 +3416,7 @@
         <v>99.97</v>
       </c>
       <c r="J9" t="n">
-        <v>0.48</v>
+        <v>0.38</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -3465,13 +3465,13 @@
         <v>57.3005854545455</v>
       </c>
       <c r="E10" t="n">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="F10" t="n">
         <v>375998</v>
       </c>
       <c r="G10" t="n">
-        <v>5421642</v>
+        <v>5424082</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -3531,13 +3531,13 @@
         <v>74.42545109090911</v>
       </c>
       <c r="E11" t="n">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="F11" t="n">
-        <v>375632</v>
+        <v>375008</v>
       </c>
       <c r="G11" t="n">
-        <v>5478547</v>
+        <v>5475681</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -3597,13 +3597,13 @@
         <v>88.0451038181818</v>
       </c>
       <c r="E12" t="n">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="F12" t="n">
-        <v>419719</v>
+        <v>375453</v>
       </c>
       <c r="G12" t="n">
-        <v>5392682</v>
+        <v>5394524</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -3663,13 +3663,13 @@
         <v>90.9425943636364</v>
       </c>
       <c r="E13" t="n">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F13" t="n">
         <v>375453</v>
       </c>
       <c r="G13" t="n">
-        <v>5396956</v>
+        <v>5394992</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -3729,13 +3729,13 @@
         <v>91.7960152727273</v>
       </c>
       <c r="E14" t="n">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="F14" t="n">
         <v>375453</v>
       </c>
       <c r="G14" t="n">
-        <v>5395672</v>
+        <v>5394566</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -3795,13 +3795,13 @@
         <v>77.68210727272729</v>
       </c>
       <c r="E15" t="n">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F15" t="n">
         <v>375453</v>
       </c>
       <c r="G15" t="n">
-        <v>5390886</v>
+        <v>5392234</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -3864,10 +3864,10 @@
         <v>208</v>
       </c>
       <c r="F16" t="n">
-        <v>375453</v>
+        <v>421487</v>
       </c>
       <c r="G16" t="n">
-        <v>5366824</v>
+        <v>5370026</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -3875,7 +3875,7 @@
         </is>
       </c>
       <c r="I16" t="n">
-        <v>99.97</v>
+        <v>99.92</v>
       </c>
       <c r="J16" t="n">
         <v>0.33</v>
